--- a/мисит (моделирование информационных систем и технологий)/Лаба2.xlsx
+++ b/мисит (моделирование информационных систем и технологий)/Лаба2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5AE70-33CC-4BD9-9DC7-FFB6DFC0D3A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8D27B-59AA-4EC3-9FD3-97BABFBE837D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L0" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">L0!$C$14:$E$15</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'L1'!$C$14:$E$15</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
@@ -25,10 +26,11 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="1" hidden="1">'L1'!$C$20:$E$20</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">L0!$C$14:$E$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'L1'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'L1'!$C$14:$C$15</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">L0!$C$24:$E$24</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'L1'!$C$10:$E$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'L1'!$C$24:$E$24</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'L1'!$C$20:$E$20</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'L1'!$C$20:$E$20</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -42,27 +44,29 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">L0!$B$18</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'L1'!$B$14</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'L1'!$B$18</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rhs0" localSheetId="1" hidden="1">'L1'!$C$4:$E$4</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'L1'!$B$11/4</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">L0!$C$8:$E$8</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'L1'!$C$8:$E$8</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'L1'!$C$4:$E$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'L1'!$C$4:$E$4</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -94,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Исходные данные:</t>
   </si>
@@ -658,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,9 +732,15 @@
       <c r="B6" s="7">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>196</v>
+      </c>
+      <c r="E6" s="3">
+        <v>292</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
@@ -741,9 +751,15 @@
       <c r="B7" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="5">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5">
+        <v>306</v>
+      </c>
+      <c r="E7" s="6">
+        <v>456</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
@@ -822,16 +838,16 @@
       </c>
       <c r="B14" s="7">
         <f>SUM(C14:E14)</f>
-        <v>307.3170731707317</v>
+        <v>787.49999999999989</v>
       </c>
       <c r="C14" s="2">
-        <v>175.60975609756096</v>
+        <v>449.99999999999989</v>
       </c>
       <c r="D14" s="2">
-        <v>43.902439024390247</v>
+        <v>112.50000000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>87.804878048780481</v>
+        <v>224.99999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -840,16 +856,16 @@
       </c>
       <c r="B15" s="8">
         <f>SUM(C15:E15)</f>
-        <v>384.14634146341461</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>219.51219512195121</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>54.878048780487809</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>109.7560975609756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -861,19 +877,19 @@
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
-        <v>0</v>
+        <v>132749.99999999997</v>
       </c>
       <c r="C18" s="13">
         <f>C6*C14+C7*C15</f>
-        <v>0</v>
+        <v>44999.999999999985</v>
       </c>
       <c r="D18" s="13">
         <f>D6*D14+D7*D15</f>
-        <v>0</v>
+        <v>22050.000000000004</v>
       </c>
       <c r="E18" s="14">
         <f>E6*E14+E7*E15</f>
-        <v>0</v>
+        <v>65699.999999999985</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,15 +909,15 @@
       </c>
       <c r="C22" s="1">
         <f>B6*C14</f>
-        <v>2107.3170731707314</v>
+        <v>5399.9999999999982</v>
       </c>
       <c r="D22" s="2">
         <f>B6*D14</f>
-        <v>526.82926829268297</v>
+        <v>1350.0000000000002</v>
       </c>
       <c r="E22" s="3">
         <f>B6*E14</f>
-        <v>1053.6585365853657</v>
+        <v>2699.9999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -910,15 +926,15 @@
       </c>
       <c r="C23" s="4">
         <f>B7*C15</f>
-        <v>3292.6829268292681</v>
+        <v>0</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ref="D23:D24" si="0">B7*D15</f>
-        <v>823.17073170731715</v>
+        <f t="shared" ref="D23" si="0">B7*D15</f>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:E24" si="1">B7*E15</f>
-        <v>1646.3414634146341</v>
+        <f t="shared" ref="E23" si="1">B7*E15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,15 +944,15 @@
       <c r="B24" s="21"/>
       <c r="C24">
         <f>SUM(C22:C23)</f>
-        <v>5400</v>
+        <v>5399.9999999999982</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:E24" si="2">SUM(D22:D23)</f>
-        <v>1350</v>
+        <v>1350.0000000000002</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>2700</v>
+        <v>2699.9999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -946,245 +962,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B7B0D9-A288-4AD3-BC88-FE5F7C2DEB42}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
-        <v>5400</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1350</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2700</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>196</v>
+      </c>
+      <c r="E6" s="3">
+        <v>292</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5">
+        <v>306</v>
+      </c>
+      <c r="E7" s="6">
+        <v>456</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
+        <v>5400</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1350</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
-        <f>SUM(C10:E10)</f>
-        <v>307.3170731707317</v>
-      </c>
-      <c r="C10" s="2">
-        <v>175.60975609756096</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43.902439024390247</v>
-      </c>
-      <c r="E10" s="3">
-        <v>87.804878048780481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>450</v>
+      </c>
+      <c r="D14" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8">
-        <f>SUM(C11:E11)</f>
-        <v>384.14634146341461</v>
-      </c>
-      <c r="C11" s="5">
-        <v>219.51219512195121</v>
-      </c>
-      <c r="D11" s="5">
-        <v>54.878048780487809</v>
-      </c>
-      <c r="E11" s="6">
-        <v>109.7560975609756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
-        <f>SUM(C14:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <f>C2*C10+C3*C11</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <f>D2*D10+D3*D11</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <f>E2*E10+E3*E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
+        <f>SUM(C18:E18)</f>
+        <v>132750</v>
+      </c>
+      <c r="C18" s="13">
+        <f>C6*C14+C7*C15</f>
+        <v>45000</v>
+      </c>
+      <c r="D18" s="13">
+        <f>D6*D14+D7*D15</f>
+        <v>22050</v>
+      </c>
+      <c r="E18" s="14">
+        <f>E6*E14+E7*E15</f>
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <f>B2*C10</f>
-        <v>2107.3170731707314</v>
-      </c>
-      <c r="D18" s="2">
-        <f>B2*D10</f>
-        <v>526.82926829268297</v>
-      </c>
-      <c r="E18" s="3">
-        <f>B2*E10</f>
-        <v>1053.6585365853657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C22" s="1">
+        <f>B6*C14</f>
+        <v>5400</v>
+      </c>
+      <c r="D22" s="2">
+        <f>B6*D14</f>
+        <v>1350</v>
+      </c>
+      <c r="E22" s="3">
+        <f>B6*E14</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
-        <f>B3*C11</f>
-        <v>3292.6829268292681</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19" si="0">B3*D11</f>
-        <v>823.17073170731715</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19" si="1">B3*E11</f>
-        <v>1646.3414634146341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="C23" s="4">
+        <f>B7*C15</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23" si="0">B7*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23" si="1">B7*E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20">
-        <f>SUM(C18:C19)</f>
+      <c r="B24" s="21"/>
+      <c r="C24">
+        <f>SUM(C22:C23)</f>
         <v>5400</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:E20" si="2">SUM(D18:D19)</f>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="2">SUM(D22:D23)</f>
         <v>1350</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
